--- a/referencias_extras.xlsx
+++ b/referencias_extras.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/curso-r/CursoRutils/inst/minimal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/curso-r/202104-r4ds-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71D2336-605E-CC42-AD04-40BFC18A71B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C4C309-CC5A-4A49-A412-87D6C255BA33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="39920" yWindow="-100" windowWidth="27500" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>aula</t>
   </si>
@@ -32,6 +33,15 @@
   </si>
   <si>
     <t>url</t>
+  </si>
+  <si>
+    <t>Código utilizado para baixar os dados da série RIck and Morty utilizados na primeira aula</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/curso-r/main-r4ds-2/master/data-raw/rick_and_morty.R</t>
+  </si>
+  <si>
+    <t>Código extra</t>
   </si>
 </sst>
 </file>
@@ -46,75 +56,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -125,103 +83,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1382,15 +1251,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="38" style="1" customWidth="1"/>
     <col min="4" max="4" width="104.33203125" style="1" customWidth="1"/>
@@ -1398,381 +1267,609 @@
     <col min="8" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="8"/>
-    </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="12"/>
-    </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="4"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="12"/>
-    </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="14"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="12"/>
-    </row>
-    <row r="44" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="17"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="12"/>
-    </row>
-    <row r="45" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="17"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="12"/>
-    </row>
-    <row r="46" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="18"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="22"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+    </row>
+    <row r="2" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+    </row>
+    <row r="3" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+    </row>
+    <row r="4" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+    </row>
+    <row r="5" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+    </row>
+    <row r="6" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+    </row>
+    <row r="7" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+    </row>
+    <row r="8" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+    </row>
+    <row r="9" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+    </row>
+    <row r="10" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+    </row>
+    <row r="11" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+    </row>
+    <row r="12" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+    </row>
+    <row r="13" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+    </row>
+    <row r="14" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+    </row>
+    <row r="15" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+    </row>
+    <row r="16" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+    </row>
+    <row r="17" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+    </row>
+    <row r="18" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+    </row>
+    <row r="19" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+    </row>
+    <row r="20" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+    </row>
+    <row r="21" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+    </row>
+    <row r="22" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+    </row>
+    <row r="23" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+    </row>
+    <row r="24" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+    </row>
+    <row r="25" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+    </row>
+    <row r="26" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+    </row>
+    <row r="27" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+    </row>
+    <row r="28" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+    </row>
+    <row r="29" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+    </row>
+    <row r="30" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+    </row>
+    <row r="31" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+    </row>
+    <row r="32" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+    </row>
+    <row r="33" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+    </row>
+    <row r="34" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+    </row>
+    <row r="35" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+    </row>
+    <row r="36" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+    </row>
+    <row r="37" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+    </row>
+    <row r="38" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+    </row>
+    <row r="39" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+    </row>
+    <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+    </row>
+    <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41"/>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+    </row>
+    <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42"/>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+    </row>
+    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+    </row>
+    <row r="44" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44"/>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+    </row>
+    <row r="45" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45"/>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+    </row>
+    <row r="46" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46"/>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+    </row>
+    <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47"/>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+    </row>
+    <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48"/>
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+    </row>
+    <row r="49" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49"/>
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.3"/>
@@ -1781,4 +1878,16 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60984065-82D7-374A-927F-E843D2B57EAC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/referencias_extras.xlsx
+++ b/referencias_extras.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t xml:space="preserve">aula</t>
   </si>
@@ -42,6 +42,36 @@
   </si>
   <si>
     <t xml:space="preserve">https://raw.githubusercontent.com/curso-r/main-r4ds-2/master/data-raw/rick_and_morty.R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colinha do {stringr}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.rstudio.com/resources/cheatsheets/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentação das  regex no R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://stringi.gagolewski.com/rapi/about_search_regex.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regex interativo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://regex101.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conversa/Dúvidas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transliteração</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://blog.curso-r.com/posts/2019-08-29-transliteracao/</t>
   </si>
 </sst>
 </file>
@@ -156,10 +186,10 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.83"/>
@@ -196,10 +226,59 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -258,7 +337,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
